--- a/ML/McGill School of Continuing Studies/YCBS 258 - Practical Machine Learning/PrepareForExam/Answers.xlsx
+++ b/ML/McGill School of Continuing Studies/YCBS 258 - Practical Machine Learning/PrepareForExam/Answers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!!!PERSONAL_DATA\Osama\!Data Science Courses\!!3-YCBS 258 - Practical Machine Learning\PrepareForTheExams\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://metrolinx-my.sharepoint.com/personal/sam_wanis_metrolinx_com/Documents/!P/External Training/!!! YCBS 258 - Practical Machine Learning/PrepareForThe Exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753E10CE-D8BF-4178-B197-D4314C2212E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="13_ncr:1_{753E10CE-D8BF-4178-B197-D4314C2212E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66B02ECE-5788-4D4C-967E-145BB7FE52B8}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{DB0278A1-0112-40E6-B434-A7C7F2CF2A0C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{DB0278A1-0112-40E6-B434-A7C7F2CF2A0C}"/>
   </bookViews>
   <sheets>
     <sheet name="ChatGPT" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="27">
   <si>
     <t>Deep Learning and Keras</t>
   </si>
@@ -106,6 +106,18 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>a?</t>
+  </si>
+  <si>
+    <t>b,c,d</t>
+  </si>
+  <si>
+    <t>Convolutional Neural Networks(1)</t>
+  </si>
+  <si>
+    <t>Convolutional Neural Networks(2)</t>
   </si>
 </sst>
 </file>
@@ -358,19 +370,19 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -708,77 +720,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AD7D11-662C-4FCC-BF9F-46F4E428D887}">
   <dimension ref="A1:AB23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.26953125" customWidth="1"/>
-    <col min="2" max="2" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="1" customWidth="1"/>
+    <col min="3" max="15" width="8.140625" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="8.140625" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="8.140625" customWidth="1"/>
+    <col min="22" max="22" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="8.140625" customWidth="1"/>
+    <col min="25" max="25" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="8.140625" customWidth="1"/>
+    <col min="28" max="28" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="57.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
-      <c r="B1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="13" t="s">
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="14"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="12"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="12"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="13"/>
     </row>
-    <row r="2" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -864,7 +864,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -888,23 +888,27 @@
         <f>IF(UPPER(E3)=UPPER(F3),1,0)</f>
         <v>1</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="I3" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="J3" s="6">
         <f>IF(UPPER(H3)=UPPER(I3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="L3" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="M3" s="6">
         <f>IF(UPPER(K3)=UPPER(L3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="N3" s="3"/>
       <c r="O3" s="4" t="s">
         <v>22</v>
       </c>
@@ -912,7 +916,7 @@
         <f>IF(UPPER(N3)=UPPER(O3),1,0)</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="2"/>
+      <c r="Q3" s="3"/>
       <c r="R3" s="4" t="s">
         <v>22</v>
       </c>
@@ -920,7 +924,7 @@
         <f>IF(UPPER(Q3)=UPPER(R3),1,0)</f>
         <v>0</v>
       </c>
-      <c r="T3" s="2"/>
+      <c r="T3" s="3"/>
       <c r="U3" s="4" t="s">
         <v>22</v>
       </c>
@@ -928,7 +932,7 @@
         <f>IF(UPPER(T3)=UPPER(U3),1,0)</f>
         <v>0</v>
       </c>
-      <c r="W3" s="2"/>
+      <c r="W3" s="3"/>
       <c r="X3" s="4" t="s">
         <v>22</v>
       </c>
@@ -936,7 +940,7 @@
         <f>IF(UPPER(W3)=UPPER(X3),1,0)</f>
         <v>0</v>
       </c>
-      <c r="Z3" s="2"/>
+      <c r="Z3" s="3"/>
       <c r="AA3" s="4" t="s">
         <v>22</v>
       </c>
@@ -945,7 +949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -969,23 +973,27 @@
         <f t="shared" ref="G4:G22" si="1">IF(UPPER(E4)=UPPER(F4),1,0)</f>
         <v>1</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="I4" s="4" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="J4" s="6">
         <f t="shared" ref="J4:J22" si="2">IF(UPPER(H4)=UPPER(I4),1,0)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="2"/>
+      <c r="K4" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="L4" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="M4" s="6">
         <f t="shared" ref="M4:M22" si="3">IF(UPPER(K4)=UPPER(L4),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N4" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="N4" s="3"/>
       <c r="O4" s="4" t="s">
         <v>22</v>
       </c>
@@ -993,7 +1001,7 @@
         <f t="shared" ref="P4:P22" si="4">IF(UPPER(N4)=UPPER(O4),1,0)</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="2"/>
+      <c r="Q4" s="3"/>
       <c r="R4" s="4" t="s">
         <v>22</v>
       </c>
@@ -1001,7 +1009,7 @@
         <f t="shared" ref="S4:S22" si="5">IF(UPPER(Q4)=UPPER(R4),1,0)</f>
         <v>0</v>
       </c>
-      <c r="T4" s="2"/>
+      <c r="T4" s="3"/>
       <c r="U4" s="4" t="s">
         <v>22</v>
       </c>
@@ -1009,7 +1017,7 @@
         <f t="shared" ref="V4:V22" si="6">IF(UPPER(T4)=UPPER(U4),1,0)</f>
         <v>0</v>
       </c>
-      <c r="W4" s="2"/>
+      <c r="W4" s="3"/>
       <c r="X4" s="4" t="s">
         <v>22</v>
       </c>
@@ -1017,7 +1025,7 @@
         <f t="shared" ref="Y4:Y22" si="7">IF(UPPER(W4)=UPPER(X4),1,0)</f>
         <v>0</v>
       </c>
-      <c r="Z4" s="2"/>
+      <c r="Z4" s="3"/>
       <c r="AA4" s="4" t="s">
         <v>22</v>
       </c>
@@ -1026,7 +1034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -1050,23 +1058,27 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="I5" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="J5" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="L5" s="4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="M5" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N5" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="N5" s="4"/>
       <c r="O5" s="4" t="s">
         <v>22</v>
       </c>
@@ -1074,7 +1086,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q5" s="2"/>
+      <c r="Q5" s="3"/>
       <c r="R5" s="4" t="s">
         <v>22</v>
       </c>
@@ -1082,7 +1094,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T5" s="2"/>
+      <c r="T5" s="3"/>
       <c r="U5" s="4" t="s">
         <v>22</v>
       </c>
@@ -1090,7 +1102,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W5" s="2"/>
+      <c r="W5" s="3"/>
       <c r="X5" s="4" t="s">
         <v>22</v>
       </c>
@@ -1098,7 +1110,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z5" s="2"/>
+      <c r="Z5" s="3"/>
       <c r="AA5" s="4" t="s">
         <v>22</v>
       </c>
@@ -1107,7 +1119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -1131,23 +1143,27 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="I6" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="J6" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="L6" s="4" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="M6" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N6" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="N6" s="4"/>
       <c r="O6" s="4" t="s">
         <v>22</v>
       </c>
@@ -1155,7 +1171,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="2"/>
+      <c r="Q6" s="3"/>
       <c r="R6" s="4" t="s">
         <v>22</v>
       </c>
@@ -1163,7 +1179,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T6" s="2"/>
+      <c r="T6" s="3"/>
       <c r="U6" s="4" t="s">
         <v>22</v>
       </c>
@@ -1171,7 +1187,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W6" s="2"/>
+      <c r="W6" s="3"/>
       <c r="X6" s="4" t="s">
         <v>22</v>
       </c>
@@ -1179,7 +1195,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z6" s="2"/>
+      <c r="Z6" s="3"/>
       <c r="AA6" s="4" t="s">
         <v>22</v>
       </c>
@@ -1188,7 +1204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -1212,23 +1228,27 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="I7" s="4" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="J7" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="L7" s="4" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="M7" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N7" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="N7" s="4"/>
       <c r="O7" s="4" t="s">
         <v>22</v>
       </c>
@@ -1236,7 +1256,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="2"/>
+      <c r="Q7" s="3"/>
       <c r="R7" s="4" t="s">
         <v>22</v>
       </c>
@@ -1244,7 +1264,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T7" s="2"/>
+      <c r="T7" s="3"/>
       <c r="U7" s="4" t="s">
         <v>22</v>
       </c>
@@ -1252,7 +1272,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W7" s="2"/>
+      <c r="W7" s="3"/>
       <c r="X7" s="4" t="s">
         <v>22</v>
       </c>
@@ -1260,7 +1280,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z7" s="2"/>
+      <c r="Z7" s="3"/>
       <c r="AA7" s="4" t="s">
         <v>22</v>
       </c>
@@ -1269,7 +1289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -1293,23 +1313,27 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="I8" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="J8" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K8" s="2"/>
+      <c r="K8" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="L8" s="4" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="M8" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N8" s="2"/>
+      <c r="N8" s="3"/>
       <c r="O8" s="4" t="s">
         <v>22</v>
       </c>
@@ -1317,7 +1341,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="2"/>
+      <c r="Q8" s="3"/>
       <c r="R8" s="4" t="s">
         <v>22</v>
       </c>
@@ -1325,7 +1349,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T8" s="2"/>
+      <c r="T8" s="3"/>
       <c r="U8" s="4" t="s">
         <v>22</v>
       </c>
@@ -1333,7 +1357,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W8" s="2"/>
+      <c r="W8" s="3"/>
       <c r="X8" s="4" t="s">
         <v>22</v>
       </c>
@@ -1341,7 +1365,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z8" s="2"/>
+      <c r="Z8" s="3"/>
       <c r="AA8" s="4" t="s">
         <v>22</v>
       </c>
@@ -1350,7 +1374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -1374,23 +1398,27 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="I9" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J9" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="2"/>
+      <c r="K9" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="L9" s="4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="M9" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N9" s="2"/>
+      <c r="N9" s="3"/>
       <c r="O9" s="4" t="s">
         <v>22</v>
       </c>
@@ -1398,7 +1426,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="2"/>
+      <c r="Q9" s="3"/>
       <c r="R9" s="4" t="s">
         <v>22</v>
       </c>
@@ -1406,7 +1434,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T9" s="2"/>
+      <c r="T9" s="3"/>
       <c r="U9" s="4" t="s">
         <v>22</v>
       </c>
@@ -1414,7 +1442,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W9" s="2"/>
+      <c r="W9" s="3"/>
       <c r="X9" s="4" t="s">
         <v>22</v>
       </c>
@@ -1422,7 +1450,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z9" s="2"/>
+      <c r="Z9" s="3"/>
       <c r="AA9" s="4" t="s">
         <v>22</v>
       </c>
@@ -1431,7 +1459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -1455,23 +1483,27 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="I10" s="4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J10" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="L10" s="4" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="M10" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N10" s="2"/>
+      <c r="N10" s="3"/>
       <c r="O10" s="4" t="s">
         <v>22</v>
       </c>
@@ -1479,7 +1511,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="2"/>
+      <c r="Q10" s="3"/>
       <c r="R10" s="4" t="s">
         <v>22</v>
       </c>
@@ -1487,7 +1519,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T10" s="2"/>
+      <c r="T10" s="3"/>
       <c r="U10" s="4" t="s">
         <v>22</v>
       </c>
@@ -1495,7 +1527,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W10" s="2"/>
+      <c r="W10" s="3"/>
       <c r="X10" s="4" t="s">
         <v>22</v>
       </c>
@@ -1503,7 +1535,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z10" s="2"/>
+      <c r="Z10" s="3"/>
       <c r="AA10" s="4" t="s">
         <v>22</v>
       </c>
@@ -1512,7 +1544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>9</v>
       </c>
@@ -1536,23 +1568,27 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="I11" s="4" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="J11" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K11" s="2"/>
+      <c r="K11" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="L11" s="4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="M11" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="N11" s="3"/>
       <c r="O11" s="4" t="s">
         <v>22</v>
       </c>
@@ -1560,7 +1596,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="2"/>
+      <c r="Q11" s="3"/>
       <c r="R11" s="4" t="s">
         <v>22</v>
       </c>
@@ -1568,7 +1604,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T11" s="2"/>
+      <c r="T11" s="3"/>
       <c r="U11" s="4" t="s">
         <v>22</v>
       </c>
@@ -1576,7 +1612,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W11" s="2"/>
+      <c r="W11" s="3"/>
       <c r="X11" s="4" t="s">
         <v>22</v>
       </c>
@@ -1584,7 +1620,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z11" s="2"/>
+      <c r="Z11" s="3"/>
       <c r="AA11" s="4" t="s">
         <v>22</v>
       </c>
@@ -1593,7 +1629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>10</v>
       </c>
@@ -1617,23 +1653,27 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="I12" s="4" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="J12" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K12" s="2"/>
+      <c r="K12" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="L12" s="4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="M12" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="N12" s="3"/>
       <c r="O12" s="4" t="s">
         <v>22</v>
       </c>
@@ -1641,7 +1681,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="2"/>
+      <c r="Q12" s="3"/>
       <c r="R12" s="4" t="s">
         <v>22</v>
       </c>
@@ -1649,7 +1689,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T12" s="2"/>
+      <c r="T12" s="3"/>
       <c r="U12" s="4" t="s">
         <v>22</v>
       </c>
@@ -1657,7 +1697,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W12" s="2"/>
+      <c r="W12" s="3"/>
       <c r="X12" s="4" t="s">
         <v>22</v>
       </c>
@@ -1665,7 +1705,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z12" s="2"/>
+      <c r="Z12" s="3"/>
       <c r="AA12" s="4" t="s">
         <v>22</v>
       </c>
@@ -1674,7 +1714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>11</v>
       </c>
@@ -1698,23 +1738,27 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="I13" s="4" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="J13" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="L13" s="4" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="M13" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="N13" s="3"/>
       <c r="O13" s="4" t="s">
         <v>22</v>
       </c>
@@ -1722,7 +1766,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="2"/>
+      <c r="Q13" s="3"/>
       <c r="R13" s="4" t="s">
         <v>22</v>
       </c>
@@ -1730,7 +1774,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T13" s="2"/>
+      <c r="T13" s="3"/>
       <c r="U13" s="4" t="s">
         <v>22</v>
       </c>
@@ -1738,7 +1782,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W13" s="2"/>
+      <c r="W13" s="3"/>
       <c r="X13" s="4" t="s">
         <v>22</v>
       </c>
@@ -1746,7 +1790,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z13" s="2"/>
+      <c r="Z13" s="3"/>
       <c r="AA13" s="4" t="s">
         <v>22</v>
       </c>
@@ -1755,7 +1799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>12</v>
       </c>
@@ -1779,23 +1823,27 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="I14" s="4" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="J14" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="L14" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="M14" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="N14" s="3"/>
       <c r="O14" s="4" t="s">
         <v>22</v>
       </c>
@@ -1803,7 +1851,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="2"/>
+      <c r="Q14" s="3"/>
       <c r="R14" s="4" t="s">
         <v>22</v>
       </c>
@@ -1811,7 +1859,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T14" s="2"/>
+      <c r="T14" s="3"/>
       <c r="U14" s="4" t="s">
         <v>22</v>
       </c>
@@ -1819,7 +1867,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W14" s="2"/>
+      <c r="W14" s="3"/>
       <c r="X14" s="4" t="s">
         <v>22</v>
       </c>
@@ -1827,7 +1875,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z14" s="2"/>
+      <c r="Z14" s="3"/>
       <c r="AA14" s="4" t="s">
         <v>22</v>
       </c>
@@ -1836,7 +1884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>13</v>
       </c>
@@ -1860,23 +1908,27 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="I15" s="4" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="J15" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="L15" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="M15" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="N15" s="3"/>
       <c r="O15" s="4" t="s">
         <v>22</v>
       </c>
@@ -1884,7 +1936,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="2"/>
+      <c r="Q15" s="3"/>
       <c r="R15" s="4" t="s">
         <v>22</v>
       </c>
@@ -1892,7 +1944,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T15" s="2"/>
+      <c r="T15" s="3"/>
       <c r="U15" s="4" t="s">
         <v>22</v>
       </c>
@@ -1900,7 +1952,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W15" s="2"/>
+      <c r="W15" s="3"/>
       <c r="X15" s="4" t="s">
         <v>22</v>
       </c>
@@ -1908,7 +1960,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z15" s="2"/>
+      <c r="Z15" s="3"/>
       <c r="AA15" s="4" t="s">
         <v>22</v>
       </c>
@@ -1917,7 +1969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>14</v>
       </c>
@@ -1941,23 +1993,27 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="I16" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J16" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K16" s="2"/>
+      <c r="K16" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="L16" s="4" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="M16" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="N16" s="3"/>
       <c r="O16" s="4" t="s">
         <v>22</v>
       </c>
@@ -1965,7 +2021,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="2"/>
+      <c r="Q16" s="3"/>
       <c r="R16" s="4" t="s">
         <v>22</v>
       </c>
@@ -1973,7 +2029,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T16" s="2"/>
+      <c r="T16" s="3"/>
       <c r="U16" s="4" t="s">
         <v>22</v>
       </c>
@@ -1981,7 +2037,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W16" s="2"/>
+      <c r="W16" s="3"/>
       <c r="X16" s="4" t="s">
         <v>22</v>
       </c>
@@ -1989,7 +2045,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z16" s="2"/>
+      <c r="Z16" s="3"/>
       <c r="AA16" s="4" t="s">
         <v>22</v>
       </c>
@@ -1998,7 +2054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>15</v>
       </c>
@@ -2022,23 +2078,27 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="I17" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J17" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K17" s="2"/>
+      <c r="K17" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="L17" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="M17" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="N17" s="3"/>
       <c r="O17" s="4" t="s">
         <v>22</v>
       </c>
@@ -2046,7 +2106,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="2"/>
+      <c r="Q17" s="3"/>
       <c r="R17" s="4" t="s">
         <v>22</v>
       </c>
@@ -2054,7 +2114,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T17" s="2"/>
+      <c r="T17" s="3"/>
       <c r="U17" s="4" t="s">
         <v>22</v>
       </c>
@@ -2062,7 +2122,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W17" s="2"/>
+      <c r="W17" s="3"/>
       <c r="X17" s="4" t="s">
         <v>22</v>
       </c>
@@ -2070,7 +2130,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z17" s="2"/>
+      <c r="Z17" s="3"/>
       <c r="AA17" s="4" t="s">
         <v>22</v>
       </c>
@@ -2079,7 +2139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>16</v>
       </c>
@@ -2103,23 +2163,27 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="I18" s="4" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="J18" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K18" s="2"/>
+      <c r="K18" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="L18" s="4" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="M18" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="N18" s="3"/>
       <c r="O18" s="4" t="s">
         <v>22</v>
       </c>
@@ -2127,7 +2191,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="2"/>
+      <c r="Q18" s="3"/>
       <c r="R18" s="4" t="s">
         <v>22</v>
       </c>
@@ -2135,7 +2199,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T18" s="2"/>
+      <c r="T18" s="3"/>
       <c r="U18" s="4" t="s">
         <v>22</v>
       </c>
@@ -2143,7 +2207,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W18" s="2"/>
+      <c r="W18" s="3"/>
       <c r="X18" s="4" t="s">
         <v>22</v>
       </c>
@@ -2151,7 +2215,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z18" s="2"/>
+      <c r="Z18" s="3"/>
       <c r="AA18" s="4" t="s">
         <v>22</v>
       </c>
@@ -2160,7 +2224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>17</v>
       </c>
@@ -2184,23 +2248,27 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="I19" s="4" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="J19" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K19" s="2"/>
+      <c r="K19" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="L19" s="4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="M19" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="N19" s="3"/>
       <c r="O19" s="4" t="s">
         <v>22</v>
       </c>
@@ -2208,7 +2276,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="2"/>
+      <c r="Q19" s="3"/>
       <c r="R19" s="4" t="s">
         <v>22</v>
       </c>
@@ -2216,7 +2284,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T19" s="2"/>
+      <c r="T19" s="3"/>
       <c r="U19" s="4" t="s">
         <v>22</v>
       </c>
@@ -2224,7 +2292,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W19" s="2"/>
+      <c r="W19" s="3"/>
       <c r="X19" s="4" t="s">
         <v>22</v>
       </c>
@@ -2232,7 +2300,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z19" s="2"/>
+      <c r="Z19" s="3"/>
       <c r="AA19" s="4" t="s">
         <v>22</v>
       </c>
@@ -2241,7 +2309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>18</v>
       </c>
@@ -2265,23 +2333,27 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="I20" s="4" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="J20" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="L20" s="4" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="M20" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N20" s="2"/>
+      <c r="N20" s="3"/>
       <c r="O20" s="4" t="s">
         <v>22</v>
       </c>
@@ -2289,7 +2361,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="2"/>
+      <c r="Q20" s="3"/>
       <c r="R20" s="4" t="s">
         <v>22</v>
       </c>
@@ -2297,7 +2369,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T20" s="2"/>
+      <c r="T20" s="3"/>
       <c r="U20" s="4" t="s">
         <v>22</v>
       </c>
@@ -2305,7 +2377,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W20" s="2"/>
+      <c r="W20" s="3"/>
       <c r="X20" s="4" t="s">
         <v>22</v>
       </c>
@@ -2313,7 +2385,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z20" s="2"/>
+      <c r="Z20" s="3"/>
       <c r="AA20" s="4" t="s">
         <v>22</v>
       </c>
@@ -2322,7 +2394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>19</v>
       </c>
@@ -2346,23 +2418,27 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="H21" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="I21" s="4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J21" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="L21" s="4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="M21" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="N21" s="3"/>
       <c r="O21" s="4" t="s">
         <v>22</v>
       </c>
@@ -2370,7 +2446,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="2"/>
+      <c r="Q21" s="3"/>
       <c r="R21" s="4" t="s">
         <v>22</v>
       </c>
@@ -2378,7 +2454,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T21" s="2"/>
+      <c r="T21" s="3"/>
       <c r="U21" s="4" t="s">
         <v>22</v>
       </c>
@@ -2386,7 +2462,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W21" s="2"/>
+      <c r="W21" s="3"/>
       <c r="X21" s="4" t="s">
         <v>22</v>
       </c>
@@ -2394,7 +2470,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z21" s="2"/>
+      <c r="Z21" s="3"/>
       <c r="AA21" s="4" t="s">
         <v>22</v>
       </c>
@@ -2403,7 +2479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>20</v>
       </c>
@@ -2427,23 +2503,27 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H22" s="2"/>
+      <c r="H22" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="I22" s="4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J22" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="L22" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M22" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N22" s="2"/>
+      <c r="N22" s="3"/>
       <c r="O22" s="4" t="s">
         <v>22</v>
       </c>
@@ -2451,7 +2531,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="2"/>
+      <c r="Q22" s="3"/>
       <c r="R22" s="4" t="s">
         <v>22</v>
       </c>
@@ -2459,7 +2539,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T22" s="2"/>
+      <c r="T22" s="3"/>
       <c r="U22" s="4" t="s">
         <v>22</v>
       </c>
@@ -2467,7 +2547,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W22" s="2"/>
+      <c r="W22" s="3"/>
       <c r="X22" s="4" t="s">
         <v>22</v>
       </c>
@@ -2475,7 +2555,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z22" s="2"/>
+      <c r="Z22" s="3"/>
       <c r="AA22" s="4" t="s">
         <v>22</v>
       </c>
@@ -2484,83 +2564,85 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7"/>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="15">
+      <c r="C23" s="15"/>
+      <c r="D23" s="11">
         <f>SUM(D3:D22)/COUNTIFS(C3:C22,"&lt;&gt;x")</f>
         <v>0.6</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="15">
+      <c r="F23" s="15"/>
+      <c r="G23" s="11">
         <f>SUM(G3:G22)/COUNTIFS(F3:F22,"&lt;&gt;x")</f>
         <v>0.8</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="H23" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="12"/>
-      <c r="J23" s="15" t="e">
+      <c r="I23" s="15"/>
+      <c r="J23" s="11">
         <f>SUM(J3:J22)/COUNTIFS(I3:I22,"&lt;&gt;x")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K23" s="11" t="s">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K23" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="L23" s="12"/>
-      <c r="M23" s="15" t="e">
+      <c r="L23" s="15"/>
+      <c r="M23" s="11">
         <f>SUM(M3:M22)/COUNTIFS(L3:L22,"&lt;&gt;x")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N23" s="11" t="s">
+        <v>0.75</v>
+      </c>
+      <c r="N23" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="O23" s="12"/>
-      <c r="P23" s="15" t="e">
+      <c r="O23" s="15"/>
+      <c r="P23" s="11" t="e">
         <f>SUM(P3:P22)/COUNTIFS(O3:O22,"&lt;&gt;x")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q23" s="11" t="s">
+      <c r="Q23" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="R23" s="12"/>
-      <c r="S23" s="15" t="e">
+      <c r="R23" s="15"/>
+      <c r="S23" s="11" t="e">
         <f>SUM(S3:S22)/COUNTIFS(R3:R22,"&lt;&gt;x")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T23" s="11" t="s">
+      <c r="T23" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="U23" s="12"/>
-      <c r="V23" s="15" t="e">
+      <c r="U23" s="15"/>
+      <c r="V23" s="11" t="e">
         <f>SUM(V3:V22)/COUNTIFS(U3:U22,"&lt;&gt;x")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W23" s="11" t="s">
+      <c r="W23" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="15" t="e">
+      <c r="X23" s="15"/>
+      <c r="Y23" s="11" t="e">
         <f>SUM(Y3:Y22)/COUNTIFS(X3:X22,"&lt;&gt;x")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z23" s="11" t="s">
+      <c r="Z23" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="AA23" s="12"/>
-      <c r="AB23" s="15" t="e">
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="11" t="e">
         <f>SUM(AB3:AB22)/COUNTIFS(AA3:AA22,"&lt;&gt;x")</f>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
     <mergeCell ref="T1:V1"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="Z23:AA23"/>
@@ -2577,8 +2659,6 @@
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2589,77 +2669,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9DC4B8-7AC6-4C60-9D62-28B7DEF5AD45}">
   <dimension ref="A1:AB23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" activeCellId="1" sqref="D23 G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.26953125" customWidth="1"/>
-    <col min="2" max="2" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="57.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
-      <c r="B1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="13" t="s">
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="14"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="13"/>
     </row>
-    <row r="2" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -2745,7 +2817,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -2826,7 +2898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -2907,7 +2979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -2988,7 +3060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -3069,7 +3141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -3150,7 +3222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -3231,7 +3303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -3312,7 +3384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -3393,7 +3465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>9</v>
       </c>
@@ -3474,7 +3546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>10</v>
       </c>
@@ -3555,7 +3627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>11</v>
       </c>
@@ -3634,7 +3706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>12</v>
       </c>
@@ -3713,7 +3785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>13</v>
       </c>
@@ -3792,7 +3864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>14</v>
       </c>
@@ -3871,7 +3943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>15</v>
       </c>
@@ -3950,7 +4022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>16</v>
       </c>
@@ -4029,7 +4101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>17</v>
       </c>
@@ -4108,7 +4180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>18</v>
       </c>
@@ -4187,7 +4259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>19</v>
       </c>
@@ -4266,7 +4338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>20</v>
       </c>
@@ -4345,93 +4417,83 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7"/>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="15">
+      <c r="C23" s="15"/>
+      <c r="D23" s="11">
         <f>SUM(D3:D22)/COUNTIFS(C3:C22,"&lt;&gt;x")</f>
         <v>0.75</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="15">
+      <c r="F23" s="15"/>
+      <c r="G23" s="11">
         <f>SUM(G3:G22)/COUNTIFS(F3:F22,"&lt;&gt;x")</f>
         <v>0.7</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="H23" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="12"/>
-      <c r="J23" s="15" t="e">
+      <c r="I23" s="15"/>
+      <c r="J23" s="11" t="e">
         <f>SUM(J3:J22)/COUNTIFS(I3:I22,"&lt;&gt;x")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K23" s="11" t="s">
+      <c r="K23" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="L23" s="12"/>
-      <c r="M23" s="15" t="e">
+      <c r="L23" s="15"/>
+      <c r="M23" s="11" t="e">
         <f>SUM(M3:M22)/COUNTIFS(L3:L22,"&lt;&gt;x")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N23" s="11" t="s">
+      <c r="N23" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="O23" s="12"/>
-      <c r="P23" s="15" t="e">
+      <c r="O23" s="15"/>
+      <c r="P23" s="11" t="e">
         <f>SUM(P3:P22)/COUNTIFS(O3:O22,"&lt;&gt;x")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q23" s="11" t="s">
+      <c r="Q23" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="R23" s="12"/>
-      <c r="S23" s="15" t="e">
+      <c r="R23" s="15"/>
+      <c r="S23" s="11" t="e">
         <f>SUM(S3:S22)/COUNTIFS(R3:R22,"&lt;&gt;x")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T23" s="11" t="s">
+      <c r="T23" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="U23" s="12"/>
-      <c r="V23" s="15" t="e">
+      <c r="U23" s="15"/>
+      <c r="V23" s="11" t="e">
         <f>SUM(V3:V22)/COUNTIFS(U3:U22,"&lt;&gt;x")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W23" s="11" t="s">
+      <c r="W23" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="15" t="e">
+      <c r="X23" s="15"/>
+      <c r="Y23" s="11" t="e">
         <f>SUM(Y3:Y22)/COUNTIFS(X3:X22,"&lt;&gt;x")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z23" s="11" t="s">
+      <c r="Z23" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="AA23" s="12"/>
-      <c r="AB23" s="15" t="e">
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="11" t="e">
         <f>SUM(AB3:AB22)/COUNTIFS(AA3:AA22,"&lt;&gt;x")</f>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="N23:O23"/>
     <mergeCell ref="Q23:R23"/>
     <mergeCell ref="T23:U23"/>
     <mergeCell ref="B1:D1"/>
@@ -4440,6 +4502,16 @@
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ML/McGill School of Continuing Studies/YCBS 258 - Practical Machine Learning/PrepareForExam/Answers.xlsx
+++ b/ML/McGill School of Continuing Studies/YCBS 258 - Practical Machine Learning/PrepareForExam/Answers.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://metrolinx-my.sharepoint.com/personal/sam_wanis_metrolinx_com/Documents/!P/External Training/!!! YCBS 258 - Practical Machine Learning/PrepareForThe Exam/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!!!PERSONAL_DATA\Osama\!Data Science Courses\!!3-YCBS 258 - Practical Machine Learning\!  PrepareForTheExams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="13_ncr:1_{753E10CE-D8BF-4178-B197-D4314C2212E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66B02ECE-5788-4D4C-967E-145BB7FE52B8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3108093E-FE74-4CCF-91E9-9E47ACAD93A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{DB0278A1-0112-40E6-B434-A7C7F2CF2A0C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{DB0278A1-0112-40E6-B434-A7C7F2CF2A0C}"/>
   </bookViews>
   <sheets>
     <sheet name="ChatGPT" sheetId="1" r:id="rId1"/>
     <sheet name="Gemini" sheetId="2" r:id="rId2"/>
+    <sheet name="MS_Pilot" sheetId="3" r:id="rId3"/>
+    <sheet name="Plan" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="66">
   <si>
     <t>Deep Learning and Keras</t>
   </si>
@@ -118,6 +120,123 @@
   </si>
   <si>
     <t>Convolutional Neural Networks(2)</t>
+  </si>
+  <si>
+    <t>Convolutional Neural Networks</t>
+  </si>
+  <si>
+    <t>d=&gt;a</t>
+  </si>
+  <si>
+    <t>a,b,d=&gt; a,d</t>
+  </si>
+  <si>
+    <t>Recurrent Neural Networks and Time Series</t>
+  </si>
+  <si>
+    <t>c,d?</t>
+  </si>
+  <si>
+    <t>c,d</t>
+  </si>
+  <si>
+    <t>Not Yet</t>
+  </si>
+  <si>
+    <t>Autoencoders and GANs</t>
+  </si>
+  <si>
+    <t>a,c?</t>
+  </si>
+  <si>
+    <t>d?</t>
+  </si>
+  <si>
+    <t>b?</t>
+  </si>
+  <si>
+    <t>a,b?</t>
+  </si>
+  <si>
+    <t>a,b,d?</t>
+  </si>
+  <si>
+    <t>Natural Language Processing</t>
+  </si>
+  <si>
+    <t>Reinforcement Learning</t>
+  </si>
+  <si>
+    <t>Deploying Keras Models</t>
+  </si>
+  <si>
+    <t>Structuring ML Projects</t>
+  </si>
+  <si>
+    <t>Study RNN</t>
+  </si>
+  <si>
+    <t>Study Autoencoder</t>
+  </si>
+  <si>
+    <t>Answer Pilot - Autoencoder</t>
+  </si>
+  <si>
+    <t>Answer Pilot - RNN</t>
+  </si>
+  <si>
+    <t>Answer Gemini - Autoencoder</t>
+  </si>
+  <si>
+    <t>Answer Pilot - CNN</t>
+  </si>
+  <si>
+    <t>Study Deep Learning and Keras</t>
+  </si>
+  <si>
+    <t>Answer Pilot - Study Deep Learning and Keras</t>
+  </si>
+  <si>
+    <t>Answer Pilot - Hyperparameters and Performance</t>
+  </si>
+  <si>
+    <t>Study - Hyperparameters and Performance</t>
+  </si>
+  <si>
+    <t>ChatGPT</t>
+  </si>
+  <si>
+    <t>Gemini</t>
+  </si>
+  <si>
+    <t>MS Pilot</t>
+  </si>
+  <si>
+    <t>Assignment</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Investigate details about ChatGPT &amp; Gemini Questions</t>
+  </si>
+  <si>
+    <t>b,c,d ?</t>
+  </si>
+  <si>
+    <t>a,b,c?</t>
+  </si>
+  <si>
+    <t>a.b</t>
   </si>
 </sst>
 </file>
@@ -163,7 +282,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,8 +301,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -337,12 +480,242 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -371,11 +744,43 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -383,12 +788,214 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -399,6 +1006,21 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4F140579-A923-4D69-B6C0-8A2C9860019C}" name="Table1" displayName="Table1" ref="F1:K10" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="F1:K10" xr:uid="{4F140579-A923-4D69-B6C0-8A2C9860019C}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{C7B24DAB-BDC7-49D5-871A-FCB4EF48FD9E}" name="Topic" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{3FF36241-A8BF-4094-BAD5-D6069EA05A0C}" name="ChatGPT" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{6A24E179-590C-4F51-875C-D6AB10339E76}" name="Gemini" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{E8557FFF-B25D-4ABA-BCEA-569C9749ED8A}" name="Assignment" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{B91F91DE-90C2-4483-BC7A-0DCFA925A320}" name="Investigate details about ChatGPT &amp; Gemini Questions" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{28240883-FDBC-4241-95CF-1E6404E077C1}" name="MS Pilot" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -718,67 +1340,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AD7D11-662C-4FCC-BF9F-46F4E428D887}">
-  <dimension ref="A1:AB23"/>
+  <dimension ref="A1:AE23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="1" customWidth="1"/>
-    <col min="3" max="15" width="8.140625" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="8.140625" customWidth="1"/>
-    <col min="19" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="8.140625" customWidth="1"/>
-    <col min="22" max="22" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="8.140625" customWidth="1"/>
-    <col min="25" max="25" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="8.140625" customWidth="1"/>
-    <col min="28" max="28" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="57.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
-      <c r="B1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="12" t="s">
+      <c r="B1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="12" t="s">
+      <c r="F1" s="36"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="12" t="s">
+      <c r="I1" s="36"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="12"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="13"/>
-    </row>
-    <row r="2" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="L1" s="36"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="36"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="36"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" s="36"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="40"/>
+    </row>
+    <row r="2" spans="1:31" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -863,8 +1519,17 @@
       <c r="AB2" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE2" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -908,37 +1573,45 @@
         <f>IF(UPPER(K3)=UPPER(L3),1,0)</f>
         <v>1</v>
       </c>
-      <c r="N3" s="3"/>
+      <c r="N3" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="O3" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="P3" s="6">
         <f>IF(UPPER(N3)=UPPER(O3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="R3" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="S3" s="6">
         <f>IF(UPPER(Q3)=UPPER(R3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T3" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="U3" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="V3" s="6">
         <f>IF(UPPER(T3)=UPPER(U3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W3" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="X3" s="4" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="Y3" s="6">
         <f>IF(UPPER(W3)=UPPER(X3),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z3" s="3"/>
       <c r="AA3" s="4" t="s">
@@ -948,8 +1621,16 @@
         <f>IF(UPPER(Z3)=UPPER(AA3),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE3" s="6">
+        <f>IF(UPPER(AC3)=UPPER(AD3),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -993,37 +1674,45 @@
         <f t="shared" ref="M4:M22" si="3">IF(UPPER(K4)=UPPER(L4),1,0)</f>
         <v>1</v>
       </c>
-      <c r="N4" s="3"/>
+      <c r="N4" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="O4" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="P4" s="6">
         <f t="shared" ref="P4:P22" si="4">IF(UPPER(N4)=UPPER(O4),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="R4" s="4" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="S4" s="6">
         <f t="shared" ref="S4:S22" si="5">IF(UPPER(Q4)=UPPER(R4),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T4" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="U4" s="4" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="V4" s="6">
         <f t="shared" ref="V4:V22" si="6">IF(UPPER(T4)=UPPER(U4),1,0)</f>
         <v>0</v>
       </c>
-      <c r="W4" s="3"/>
+      <c r="W4" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="X4" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="Y4" s="6">
         <f t="shared" ref="Y4:Y22" si="7">IF(UPPER(W4)=UPPER(X4),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4" s="3"/>
       <c r="AA4" s="4" t="s">
@@ -1033,8 +1722,16 @@
         <f t="shared" ref="AB4:AB22" si="8">IF(UPPER(Z4)=UPPER(AA4),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE4" s="6">
+        <f t="shared" ref="AE4:AE22" si="9">IF(UPPER(AC4)=UPPER(AD4),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -1078,37 +1775,45 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="N5" s="4"/>
+      <c r="N5" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="O5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P5" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q5" s="3"/>
+      <c r="Q5" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="R5" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="S5" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T5" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="U5" s="4" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="V5" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W5" s="3"/>
+      <c r="W5" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="X5" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="Y5" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5" s="3"/>
       <c r="AA5" s="4" t="s">
@@ -1118,8 +1823,16 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE5" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -1163,37 +1876,45 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="N6" s="4"/>
+      <c r="N6" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="O6" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P6" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="3"/>
+      <c r="Q6" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="R6" s="4" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="S6" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T6" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="U6" s="4" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="V6" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W6" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="X6" s="4" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="Y6" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6" s="3"/>
       <c r="AA6" s="4" t="s">
@@ -1203,8 +1924,16 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE6" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -1248,37 +1977,45 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="N7" s="4"/>
+      <c r="N7" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="O7" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="P7" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="R7" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="S7" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T7" s="3"/>
+      <c r="T7" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="U7" s="4" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="V7" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W7" s="3"/>
+      <c r="W7" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="X7" s="4" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="Y7" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7" s="3"/>
       <c r="AA7" s="4" t="s">
@@ -1288,8 +2025,16 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE7" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -1333,37 +2078,45 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N8" s="3"/>
+      <c r="N8" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="O8" s="4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="P8" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="3"/>
+      <c r="Q8" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="R8" s="4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="S8" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T8" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="U8" s="4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="V8" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W8" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="X8" s="4" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="Y8" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8" s="3"/>
       <c r="AA8" s="4" t="s">
@@ -1373,8 +2126,16 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE8" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -1418,33 +2179,41 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N9" s="3"/>
+      <c r="N9" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="O9" s="4" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="P9" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="3"/>
+      <c r="Q9" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="R9" s="4" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="S9" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T9" s="3"/>
+      <c r="T9" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="U9" s="4" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="V9" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W9" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="X9" s="4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Y9" s="6">
         <f t="shared" si="7"/>
@@ -1458,8 +2227,16 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE9" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -1503,33 +2280,41 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N10" s="3"/>
+      <c r="N10" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="O10" s="4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="P10" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="R10" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="S10" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T10" s="3"/>
+      <c r="T10" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="U10" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="V10" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W10" s="3"/>
+      <c r="W10" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="X10" s="4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Y10" s="6">
         <f t="shared" si="7"/>
@@ -1543,8 +2328,16 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE10" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>9</v>
       </c>
@@ -1588,33 +2381,41 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="N11" s="3"/>
+      <c r="N11" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="O11" s="4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="P11" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="3"/>
+      <c r="Q11" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="R11" s="4" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="S11" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T11" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="U11" s="4" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="V11" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W11" s="3"/>
+      <c r="W11" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="X11" s="4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Y11" s="6">
         <f t="shared" si="7"/>
@@ -1628,8 +2429,16 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE11" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>10</v>
       </c>
@@ -1673,33 +2482,41 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="N12" s="3"/>
+      <c r="N12" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="O12" s="4" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="P12" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="R12" s="4" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="S12" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T12" s="3"/>
+      <c r="T12" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="U12" s="4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="V12" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W12" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="X12" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="Y12" s="6">
         <f t="shared" si="7"/>
@@ -1713,8 +2530,16 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE12" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>11</v>
       </c>
@@ -1758,37 +2583,45 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="N13" s="3"/>
+      <c r="N13" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="O13" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="P13" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="R13" s="4" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="S13" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T13" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="U13" s="4" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="V13" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W13" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="X13" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="Y13" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z13" s="3"/>
       <c r="AA13" s="4" t="s">
@@ -1798,8 +2631,16 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE13" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>12</v>
       </c>
@@ -1843,33 +2684,41 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="N14" s="3"/>
+      <c r="N14" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="O14" s="4" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="P14" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="R14" s="4" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="S14" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T14" s="3"/>
+      <c r="T14" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="U14" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="V14" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W14" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="X14" s="4" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="Y14" s="6">
         <f t="shared" si="7"/>
@@ -1883,8 +2732,16 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE14" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>13</v>
       </c>
@@ -1928,37 +2785,45 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="N15" s="3"/>
+      <c r="N15" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="O15" s="4" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="P15" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="R15" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="S15" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T15" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="U15" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="V15" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W15" s="3"/>
+      <c r="W15" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="X15" s="4" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="Y15" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z15" s="3"/>
       <c r="AA15" s="4" t="s">
@@ -1968,8 +2833,16 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE15" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>14</v>
       </c>
@@ -2013,33 +2886,41 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="N16" s="3"/>
+      <c r="N16" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="O16" s="4" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="P16" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="R16" s="4" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="S16" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T16" s="3"/>
+      <c r="T16" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="U16" s="4" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="V16" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W16" s="3"/>
+      <c r="W16" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="X16" s="4" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="Y16" s="6">
         <f t="shared" si="7"/>
@@ -2053,8 +2934,16 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE16" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>15</v>
       </c>
@@ -2098,33 +2987,41 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="N17" s="3"/>
+      <c r="N17" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="O17" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P17" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="3"/>
+      <c r="Q17" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="R17" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="S17" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T17" s="3"/>
+      <c r="T17" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="U17" s="4" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="V17" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W17" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="X17" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y17" s="6">
         <f t="shared" si="7"/>
@@ -2138,8 +3035,16 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE17" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>16</v>
       </c>
@@ -2183,33 +3088,41 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="N18" s="3"/>
+      <c r="N18" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="O18" s="4" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="P18" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="3"/>
+      <c r="Q18" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="R18" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="S18" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T18" s="3"/>
+      <c r="T18" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="U18" s="4" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="V18" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W18" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="X18" s="4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Y18" s="6">
         <f t="shared" si="7"/>
@@ -2223,18 +3136,26 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE18" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="B19" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2268,33 +3189,41 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="N19" s="3"/>
+      <c r="N19" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="O19" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="P19" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="R19" s="4" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="S19" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T19" s="3"/>
+      <c r="T19" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="U19" s="4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="V19" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W19" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="X19" s="4" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="Y19" s="6">
         <f t="shared" si="7"/>
@@ -2308,8 +3237,16 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE19" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>18</v>
       </c>
@@ -2353,33 +3290,41 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N20" s="3"/>
+      <c r="N20" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="O20" s="4" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="P20" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="3"/>
+      <c r="Q20" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="R20" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="S20" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T20" s="3"/>
+      <c r="T20" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="U20" s="4" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="V20" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W20" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="X20" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="Y20" s="6">
         <f t="shared" si="7"/>
@@ -2393,8 +3338,16 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE20" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>19</v>
       </c>
@@ -2438,33 +3391,41 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="N21" s="3"/>
+      <c r="N21" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="O21" s="4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="P21" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="R21" s="4" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="S21" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T21" s="3"/>
+      <c r="T21" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="U21" s="4" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="V21" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W21" s="3"/>
+      <c r="W21" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="X21" s="4" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="Y21" s="6">
         <f t="shared" si="7"/>
@@ -2478,8 +3439,16 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE21" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A22" s="10">
         <v>20</v>
       </c>
@@ -2523,33 +3492,41 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N22" s="3"/>
+      <c r="N22" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="O22" s="4" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="P22" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="3"/>
+      <c r="Q22" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="R22" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="S22" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T22" s="3"/>
+      <c r="T22" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="U22" s="4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="V22" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W22" s="3"/>
+      <c r="W22" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="X22" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y22" s="6">
         <f t="shared" si="7"/>
@@ -2563,97 +3540,115 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE22" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="7"/>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="15"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="11">
         <f>SUM(D3:D22)/COUNTIFS(C3:C22,"&lt;&gt;x")</f>
         <v>0.6</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="15"/>
+      <c r="F23" s="35"/>
       <c r="G23" s="11">
         <f>SUM(G3:G22)/COUNTIFS(F3:F22,"&lt;&gt;x")</f>
         <v>0.8</v>
       </c>
-      <c r="H23" s="14" t="s">
+      <c r="H23" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="15"/>
+      <c r="I23" s="35"/>
       <c r="J23" s="11">
         <f>SUM(J3:J22)/COUNTIFS(I3:I22,"&lt;&gt;x")</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="K23" s="14" t="s">
+      <c r="K23" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="L23" s="15"/>
+      <c r="L23" s="35"/>
       <c r="M23" s="11">
         <f>SUM(M3:M22)/COUNTIFS(L3:L22,"&lt;&gt;x")</f>
         <v>0.75</v>
       </c>
-      <c r="N23" s="14" t="s">
+      <c r="N23" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="O23" s="15"/>
-      <c r="P23" s="11" t="e">
+      <c r="O23" s="35"/>
+      <c r="P23" s="11">
         <f>SUM(P3:P22)/COUNTIFS(O3:O22,"&lt;&gt;x")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q23" s="14" t="s">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q23" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="R23" s="15"/>
-      <c r="S23" s="11" t="e">
+      <c r="R23" s="35"/>
+      <c r="S23" s="11">
         <f>SUM(S3:S22)/COUNTIFS(R3:R22,"&lt;&gt;x")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T23" s="14" t="s">
+        <v>0.4</v>
+      </c>
+      <c r="T23" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="U23" s="15"/>
-      <c r="V23" s="11" t="e">
+      <c r="U23" s="35"/>
+      <c r="V23" s="11">
         <f>SUM(V3:V22)/COUNTIFS(U3:U22,"&lt;&gt;x")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W23" s="14" t="s">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="W23" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="X23" s="15"/>
-      <c r="Y23" s="11" t="e">
+      <c r="X23" s="35"/>
+      <c r="Y23" s="11">
         <f>SUM(Y3:Y22)/COUNTIFS(X3:X22,"&lt;&gt;x")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z23" s="14" t="s">
+        <v>0.4</v>
+      </c>
+      <c r="Z23" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="AA23" s="15"/>
+      <c r="AA23" s="35"/>
       <c r="AB23" s="11" t="e">
         <f>SUM(AB3:AB22)/COUNTIFS(AA3:AA22,"&lt;&gt;x")</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="AC23" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD23" s="35"/>
+      <c r="AE23" s="11" t="e">
+        <f>SUM(AE3:AE22)/COUNTIFS(AD3:AD22,"&lt;&gt;x")</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="20">
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AC23:AD23"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="T1:V1"/>
-    <mergeCell ref="B1:D1"/>
     <mergeCell ref="Z23:AA23"/>
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="B1:D1"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="H23:I23"/>
     <mergeCell ref="K23:L23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="Q23:R23"/>
     <mergeCell ref="T23:U23"/>
     <mergeCell ref="W23:X23"/>
     <mergeCell ref="E1:G1"/>
@@ -2669,69 +3664,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9DC4B8-7AC6-4C60-9D62-28B7DEF5AD45}">
   <dimension ref="A1:AB23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" activeCellId="1" sqref="D23 G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="9.7265625" customWidth="1"/>
+    <col min="20" max="21" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="57.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
-      <c r="B1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="12" t="s">
+      <c r="B1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="13"/>
-    </row>
-    <row r="2" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+      <c r="F1" s="36"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="36"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="36"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="36"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="36"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="U1" s="36"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="40"/>
+    </row>
+    <row r="2" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -2817,11 +3825,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -2831,7 +3839,7 @@
         <f>IF(UPPER(B3)=UPPER(C3),1,0)</f>
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -2841,47 +3849,57 @@
         <f>IF(UPPER(E3)=UPPER(F3),1,0)</f>
         <v>1</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="I3" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="J3" s="6">
         <f>IF(UPPER(H3)=UPPER(I3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="L3" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="M3" s="6">
         <f>IF(UPPER(K3)=UPPER(L3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="O3" s="4" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="P3" s="6">
         <f>IF(UPPER(N3)=UPPER(O3),1,0)</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="2"/>
+      <c r="Q3" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="R3" s="4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="S3" s="6">
         <f>IF(UPPER(Q3)=UPPER(R3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T3" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="U3" s="4" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="V3" s="6">
         <f>IF(UPPER(T3)=UPPER(U3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W3" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="W3" s="3"/>
       <c r="X3" s="4" t="s">
         <v>22</v>
       </c>
@@ -2889,7 +3907,7 @@
         <f>IF(UPPER(W3)=UPPER(X3),1,0)</f>
         <v>0</v>
       </c>
-      <c r="Z3" s="2"/>
+      <c r="Z3" s="3"/>
       <c r="AA3" s="4" t="s">
         <v>22</v>
       </c>
@@ -2898,11 +3916,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -2912,7 +3930,7 @@
         <f t="shared" ref="D4:D22" si="0">IF(UPPER(B4)=UPPER(C4),1,0)</f>
         <v>0</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -2922,47 +3940,57 @@
         <f t="shared" ref="G4:G22" si="1">IF(UPPER(E4)=UPPER(F4),1,0)</f>
         <v>1</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="I4" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="J4" s="6">
         <f t="shared" ref="J4:J22" si="2">IF(UPPER(H4)=UPPER(I4),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="L4" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="M4" s="6">
         <f t="shared" ref="M4:M22" si="3">IF(UPPER(K4)=UPPER(L4),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N4" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="O4" s="4" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="P4" s="6">
         <f t="shared" ref="P4:P22" si="4">IF(UPPER(N4)=UPPER(O4),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="R4" s="4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="S4" s="6">
         <f t="shared" ref="S4:S22" si="5">IF(UPPER(Q4)=UPPER(R4),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T4" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="U4" s="4" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="V4" s="6">
         <f t="shared" ref="V4:V22" si="6">IF(UPPER(T4)=UPPER(U4),1,0)</f>
         <v>0</v>
       </c>
-      <c r="W4" s="2"/>
+      <c r="W4" s="3"/>
       <c r="X4" s="4" t="s">
         <v>22</v>
       </c>
@@ -2970,7 +3998,7 @@
         <f t="shared" ref="Y4:Y22" si="7">IF(UPPER(W4)=UPPER(X4),1,0)</f>
         <v>0</v>
       </c>
-      <c r="Z4" s="2"/>
+      <c r="Z4" s="3"/>
       <c r="AA4" s="4" t="s">
         <v>22</v>
       </c>
@@ -2979,11 +4007,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -2993,7 +4021,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="4" t="s">
@@ -3003,47 +4031,57 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="I5" s="4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J5" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="L5" s="4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M5" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N5" s="2"/>
+      <c r="N5" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="O5" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="P5" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="R5" s="4" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="S5" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T5" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="U5" s="4" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="V5" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W5" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="W5" s="3"/>
       <c r="X5" s="4" t="s">
         <v>22</v>
       </c>
@@ -3051,7 +4089,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z5" s="2"/>
+      <c r="Z5" s="3"/>
       <c r="AA5" s="4" t="s">
         <v>22</v>
       </c>
@@ -3060,11 +4098,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -3074,7 +4112,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -3084,47 +4122,57 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="I6" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="J6" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="L6" s="4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="M6" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N6" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="O6" s="4" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="P6" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="R6" s="4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="S6" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T6" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="U6" s="4" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="V6" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W6" s="2"/>
+      <c r="W6" s="3"/>
       <c r="X6" s="4" t="s">
         <v>22</v>
       </c>
@@ -3132,7 +4180,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z6" s="2"/>
+      <c r="Z6" s="3"/>
       <c r="AA6" s="4" t="s">
         <v>22</v>
       </c>
@@ -3141,11 +4189,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -3155,7 +4203,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="4" t="s">
@@ -3165,47 +4213,57 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="I7" s="4" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="J7" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="L7" s="4" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="M7" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N7" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="O7" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="P7" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="R7" s="4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="S7" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T7" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="U7" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="V7" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W7" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="W7" s="3"/>
       <c r="X7" s="4" t="s">
         <v>22</v>
       </c>
@@ -3213,7 +4271,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z7" s="2"/>
+      <c r="Z7" s="3"/>
       <c r="AA7" s="4" t="s">
         <v>22</v>
       </c>
@@ -3222,11 +4280,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -3236,7 +4294,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F8" s="4" t="s">
@@ -3246,47 +4304,57 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="I8" s="4" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="J8" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K8" s="2"/>
+      <c r="K8" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="L8" s="4" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="M8" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N8" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="O8" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="P8" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="R8" s="4" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="S8" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T8" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="U8" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="V8" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W8" s="2"/>
+      <c r="W8" s="3"/>
       <c r="X8" s="4" t="s">
         <v>22</v>
       </c>
@@ -3294,7 +4362,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z8" s="2"/>
+      <c r="Z8" s="3"/>
       <c r="AA8" s="4" t="s">
         <v>22</v>
       </c>
@@ -3303,11 +4371,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -3317,7 +4385,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="4" t="s">
@@ -3327,47 +4395,57 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="I9" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="J9" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="L9" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="M9" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="O9" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="P9" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="R9" s="4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="S9" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T9" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="U9" s="4" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="V9" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W9" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="W9" s="3"/>
       <c r="X9" s="4" t="s">
         <v>22</v>
       </c>
@@ -3375,7 +4453,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z9" s="2"/>
+      <c r="Z9" s="3"/>
       <c r="AA9" s="4" t="s">
         <v>22</v>
       </c>
@@ -3384,11 +4462,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -3398,7 +4476,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="4" t="s">
@@ -3408,47 +4486,57 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="6">
+      <c r="H10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K10" s="2"/>
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="L10" s="4" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="M10" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N10" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="O10" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="P10" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="R10" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="S10" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T10" s="2"/>
+      <c r="T10" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="U10" s="4" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="V10" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W10" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="W10" s="3"/>
       <c r="X10" s="4" t="s">
         <v>22</v>
       </c>
@@ -3456,7 +4544,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z10" s="2"/>
+      <c r="Z10" s="3"/>
       <c r="AA10" s="4" t="s">
         <v>22</v>
       </c>
@@ -3465,11 +4553,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -3479,7 +4567,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -3489,47 +4577,57 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="I11" s="4" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="J11" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="L11" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M11" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N11" s="2"/>
+      <c r="N11" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="O11" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="P11" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="R11" s="4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="S11" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T11" s="2"/>
+        <f>IF(UPPER(Q11)=UPPER(R11),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="U11" s="4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="V11" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W11" s="2"/>
+        <f>IF(UPPER(T11)=UPPER(U11),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W11" s="3"/>
       <c r="X11" s="4" t="s">
         <v>22</v>
       </c>
@@ -3537,7 +4635,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z11" s="2"/>
+      <c r="Z11" s="3"/>
       <c r="AA11" s="4" t="s">
         <v>22</v>
       </c>
@@ -3546,11 +4644,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -3570,47 +4668,57 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="I12" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="J12" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="L12" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M12" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N12" s="2"/>
+      <c r="N12" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="O12" s="4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="P12" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="R12" s="4" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="S12" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T12" s="2"/>
+        <f>IF(UPPER(Q12)=UPPER(R12),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="U12" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="V12" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W12" s="2"/>
+        <f>IF(UPPER(T12)=UPPER(U12),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="W12" s="3"/>
       <c r="X12" s="4" t="s">
         <v>22</v>
       </c>
@@ -3618,7 +4726,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z12" s="2"/>
+      <c r="Z12" s="3"/>
       <c r="AA12" s="4" t="s">
         <v>22</v>
       </c>
@@ -3627,11 +4735,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -3649,7 +4757,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="3"/>
       <c r="I13" s="4" t="s">
         <v>22</v>
       </c>
@@ -3657,7 +4765,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K13" s="2"/>
+      <c r="K13" s="3"/>
       <c r="L13" s="4" t="s">
         <v>22</v>
       </c>
@@ -3665,7 +4773,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N13" s="2"/>
+      <c r="N13" s="3"/>
       <c r="O13" s="4" t="s">
         <v>22</v>
       </c>
@@ -3673,23 +4781,27 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="2"/>
+      <c r="Q13" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="R13" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="S13" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T13" s="2"/>
+        <f t="shared" ref="S13:S23" si="9">IF(UPPER(Q13)=UPPER(R13),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="U13" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="V13" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W13" s="2"/>
+      <c r="W13" s="3"/>
       <c r="X13" s="4" t="s">
         <v>22</v>
       </c>
@@ -3697,7 +4809,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z13" s="2"/>
+      <c r="Z13" s="3"/>
       <c r="AA13" s="4" t="s">
         <v>22</v>
       </c>
@@ -3706,11 +4818,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -3728,7 +4840,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="3"/>
       <c r="I14" s="4" t="s">
         <v>22</v>
       </c>
@@ -3736,7 +4848,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K14" s="2"/>
+      <c r="K14" s="3"/>
       <c r="L14" s="4" t="s">
         <v>22</v>
       </c>
@@ -3744,7 +4856,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N14" s="2"/>
+      <c r="N14" s="3"/>
       <c r="O14" s="4" t="s">
         <v>22</v>
       </c>
@@ -3752,23 +4864,27 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="2"/>
+      <c r="Q14" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="R14" s="4" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="S14" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T14" s="2"/>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="U14" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="V14" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W14" s="2"/>
+      <c r="W14" s="3"/>
       <c r="X14" s="4" t="s">
         <v>22</v>
       </c>
@@ -3776,7 +4892,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z14" s="2"/>
+      <c r="Z14" s="3"/>
       <c r="AA14" s="4" t="s">
         <v>22</v>
       </c>
@@ -3785,11 +4901,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -3807,7 +4923,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="3"/>
       <c r="I15" s="4" t="s">
         <v>22</v>
       </c>
@@ -3815,7 +4931,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K15" s="2"/>
+      <c r="K15" s="3"/>
       <c r="L15" s="4" t="s">
         <v>22</v>
       </c>
@@ -3823,7 +4939,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N15" s="2"/>
+      <c r="N15" s="3"/>
       <c r="O15" s="4" t="s">
         <v>22</v>
       </c>
@@ -3831,23 +4947,27 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="2"/>
+      <c r="Q15" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="R15" s="4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="S15" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T15" s="2"/>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="U15" s="4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="V15" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W15" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="W15" s="3"/>
       <c r="X15" s="4" t="s">
         <v>22</v>
       </c>
@@ -3855,7 +4975,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z15" s="2"/>
+      <c r="Z15" s="3"/>
       <c r="AA15" s="4" t="s">
         <v>22</v>
       </c>
@@ -3864,11 +4984,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -3886,7 +5006,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="3"/>
       <c r="I16" s="4" t="s">
         <v>22</v>
       </c>
@@ -3894,7 +5014,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K16" s="2"/>
+      <c r="K16" s="3"/>
       <c r="L16" s="4" t="s">
         <v>22</v>
       </c>
@@ -3902,7 +5022,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N16" s="2"/>
+      <c r="N16" s="3"/>
       <c r="O16" s="4" t="s">
         <v>22</v>
       </c>
@@ -3910,23 +5030,27 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="2"/>
+      <c r="Q16" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="R16" s="4" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="S16" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T16" s="2"/>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="U16" s="4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="V16" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W16" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="W16" s="3"/>
       <c r="X16" s="4" t="s">
         <v>22</v>
       </c>
@@ -3934,7 +5058,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z16" s="2"/>
+      <c r="Z16" s="3"/>
       <c r="AA16" s="4" t="s">
         <v>22</v>
       </c>
@@ -3943,11 +5067,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -3965,7 +5089,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" s="3"/>
       <c r="I17" s="4" t="s">
         <v>22</v>
       </c>
@@ -3973,7 +5097,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K17" s="2"/>
+      <c r="K17" s="3"/>
       <c r="L17" s="4" t="s">
         <v>22</v>
       </c>
@@ -3981,7 +5105,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N17" s="2"/>
+      <c r="N17" s="3"/>
       <c r="O17" s="4" t="s">
         <v>22</v>
       </c>
@@ -3989,23 +5113,27 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="2"/>
+      <c r="Q17" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="R17" s="4" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="S17" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T17" s="2"/>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="U17" s="4" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="V17" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W17" s="2"/>
+      <c r="W17" s="3"/>
       <c r="X17" s="4" t="s">
         <v>22</v>
       </c>
@@ -4013,7 +5141,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z17" s="2"/>
+      <c r="Z17" s="3"/>
       <c r="AA17" s="4" t="s">
         <v>22</v>
       </c>
@@ -4022,11 +5150,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -4044,7 +5172,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18" s="3"/>
       <c r="I18" s="4" t="s">
         <v>22</v>
       </c>
@@ -4052,7 +5180,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K18" s="2"/>
+      <c r="K18" s="3"/>
       <c r="L18" s="4" t="s">
         <v>22</v>
       </c>
@@ -4060,7 +5188,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N18" s="2"/>
+      <c r="N18" s="3"/>
       <c r="O18" s="4" t="s">
         <v>22</v>
       </c>
@@ -4068,15 +5196,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="2"/>
+      <c r="Q18" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="R18" s="4" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="S18" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T18" s="2"/>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="T18" s="3"/>
       <c r="U18" s="4" t="s">
         <v>22</v>
       </c>
@@ -4084,7 +5214,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W18" s="2"/>
+      <c r="W18" s="3"/>
       <c r="X18" s="4" t="s">
         <v>22</v>
       </c>
@@ -4092,7 +5222,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z18" s="2"/>
+      <c r="Z18" s="3"/>
       <c r="AA18" s="4" t="s">
         <v>22</v>
       </c>
@@ -4101,11 +5231,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -4123,7 +5253,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" s="3"/>
       <c r="I19" s="4" t="s">
         <v>22</v>
       </c>
@@ -4131,7 +5261,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K19" s="2"/>
+      <c r="K19" s="3"/>
       <c r="L19" s="4" t="s">
         <v>22</v>
       </c>
@@ -4139,7 +5269,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N19" s="2"/>
+      <c r="N19" s="3"/>
       <c r="O19" s="4" t="s">
         <v>22</v>
       </c>
@@ -4147,15 +5277,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="2"/>
+      <c r="Q19" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="R19" s="4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="S19" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T19" s="2"/>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="T19" s="3"/>
       <c r="U19" s="4" t="s">
         <v>22</v>
       </c>
@@ -4163,7 +5295,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W19" s="2"/>
+      <c r="W19" s="3"/>
       <c r="X19" s="4" t="s">
         <v>22</v>
       </c>
@@ -4171,7 +5303,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z19" s="2"/>
+      <c r="Z19" s="3"/>
       <c r="AA19" s="4" t="s">
         <v>22</v>
       </c>
@@ -4180,11 +5312,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -4202,7 +5334,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" s="3"/>
       <c r="I20" s="4" t="s">
         <v>22</v>
       </c>
@@ -4210,7 +5342,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K20" s="2"/>
+      <c r="K20" s="3"/>
       <c r="L20" s="4" t="s">
         <v>22</v>
       </c>
@@ -4218,7 +5350,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N20" s="2"/>
+      <c r="N20" s="3"/>
       <c r="O20" s="4" t="s">
         <v>22</v>
       </c>
@@ -4226,15 +5358,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="2"/>
+      <c r="Q20" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="R20" s="4" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="S20" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T20" s="2"/>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="T20" s="3"/>
       <c r="U20" s="4" t="s">
         <v>22</v>
       </c>
@@ -4242,7 +5376,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W20" s="2"/>
+      <c r="W20" s="3"/>
       <c r="X20" s="4" t="s">
         <v>22</v>
       </c>
@@ -4250,7 +5384,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z20" s="2"/>
+      <c r="Z20" s="3"/>
       <c r="AA20" s="4" t="s">
         <v>22</v>
       </c>
@@ -4259,11 +5393,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -4273,7 +5407,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="4"/>
+      <c r="E21" s="3"/>
       <c r="F21" s="4" t="s">
         <v>22</v>
       </c>
@@ -4281,7 +5415,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="H21" s="3"/>
       <c r="I21" s="4" t="s">
         <v>22</v>
       </c>
@@ -4289,7 +5423,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K21" s="2"/>
+      <c r="K21" s="3"/>
       <c r="L21" s="4" t="s">
         <v>22</v>
       </c>
@@ -4297,7 +5431,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N21" s="2"/>
+      <c r="N21" s="3"/>
       <c r="O21" s="4" t="s">
         <v>22</v>
       </c>
@@ -4305,15 +5439,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="2"/>
+      <c r="Q21" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="R21" s="4" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="S21" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T21" s="2"/>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="T21" s="3"/>
       <c r="U21" s="4" t="s">
         <v>22</v>
       </c>
@@ -4321,7 +5457,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W21" s="2"/>
+      <c r="W21" s="3"/>
       <c r="X21" s="4" t="s">
         <v>22</v>
       </c>
@@ -4329,7 +5465,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z21" s="2"/>
+      <c r="Z21" s="3"/>
       <c r="AA21" s="4" t="s">
         <v>22</v>
       </c>
@@ -4338,11 +5474,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A22" s="10">
         <v>20</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -4352,7 +5488,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E22" s="4"/>
+      <c r="E22" s="3"/>
       <c r="F22" s="4" t="s">
         <v>22</v>
       </c>
@@ -4360,7 +5496,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H22" s="2"/>
+      <c r="H22" s="3"/>
       <c r="I22" s="4" t="s">
         <v>22</v>
       </c>
@@ -4368,7 +5504,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K22" s="2"/>
+      <c r="K22" s="3"/>
       <c r="L22" s="4" t="s">
         <v>22</v>
       </c>
@@ -4376,7 +5512,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N22" s="2"/>
+      <c r="N22" s="3"/>
       <c r="O22" s="4" t="s">
         <v>22</v>
       </c>
@@ -4384,15 +5520,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="2"/>
+      <c r="Q22" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="R22" s="4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="S22" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T22" s="2"/>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="T22" s="3"/>
       <c r="U22" s="4" t="s">
         <v>22</v>
       </c>
@@ -4400,7 +5538,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W22" s="2"/>
+      <c r="W22" s="3"/>
       <c r="X22" s="4" t="s">
         <v>22</v>
       </c>
@@ -4408,7 +5546,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z22" s="2"/>
+      <c r="Z22" s="3"/>
       <c r="AA22" s="4" t="s">
         <v>22</v>
       </c>
@@ -4417,103 +5555,442 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="7"/>
-      <c r="B23" s="14" t="s">
+    <row r="23" spans="1:28" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="16"/>
+      <c r="B23" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="11">
+      <c r="C23" s="45"/>
+      <c r="D23" s="17">
         <f>SUM(D3:D22)/COUNTIFS(C3:C22,"&lt;&gt;x")</f>
         <v>0.75</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="11">
+      <c r="F23" s="45"/>
+      <c r="G23" s="17">
         <f>SUM(G3:G22)/COUNTIFS(F3:F22,"&lt;&gt;x")</f>
         <v>0.7</v>
       </c>
-      <c r="H23" s="14" t="s">
+      <c r="H23" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="15"/>
-      <c r="J23" s="11" t="e">
+      <c r="I23" s="45"/>
+      <c r="J23" s="17">
         <f>SUM(J3:J22)/COUNTIFS(I3:I22,"&lt;&gt;x")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K23" s="14" t="s">
+        <v>0.8</v>
+      </c>
+      <c r="K23" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="L23" s="15"/>
-      <c r="M23" s="11" t="e">
+      <c r="L23" s="45"/>
+      <c r="M23" s="17">
         <f>SUM(M3:M22)/COUNTIFS(L3:L22,"&lt;&gt;x")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N23" s="14" t="s">
+        <v>0.7</v>
+      </c>
+      <c r="N23" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="O23" s="15"/>
-      <c r="P23" s="11" t="e">
+      <c r="O23" s="45"/>
+      <c r="P23" s="17">
         <f>SUM(P3:P22)/COUNTIFS(O3:O22,"&lt;&gt;x")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q23" s="14" t="s">
+        <v>0.9</v>
+      </c>
+      <c r="Q23" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="R23" s="15"/>
-      <c r="S23" s="11" t="e">
+      <c r="R23" s="45"/>
+      <c r="S23" s="17">
         <f>SUM(S3:S22)/COUNTIFS(R3:R22,"&lt;&gt;x")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T23" s="14" t="s">
+        <v>0.95</v>
+      </c>
+      <c r="T23" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="U23" s="15"/>
-      <c r="V23" s="11" t="e">
+      <c r="U23" s="45"/>
+      <c r="V23" s="17">
         <f>SUM(V3:V22)/COUNTIFS(U3:U22,"&lt;&gt;x")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W23" s="14" t="s">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="W23" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="X23" s="15"/>
-      <c r="Y23" s="11" t="e">
+      <c r="X23" s="45"/>
+      <c r="Y23" s="17" t="e">
         <f>SUM(Y3:Y22)/COUNTIFS(X3:X22,"&lt;&gt;x")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z23" s="14" t="s">
+      <c r="Z23" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="AA23" s="15"/>
-      <c r="AB23" s="11" t="e">
+      <c r="AA23" s="43"/>
+      <c r="AB23" s="17" t="e">
         <f>SUM(AB3:AB22)/COUNTIFS(AA3:AA22,"&lt;&gt;x")</f>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
     <mergeCell ref="T23:U23"/>
+    <mergeCell ref="W23:X23"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:V1"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="H23:I23"/>
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="N23:O23"/>
-    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="Q1:S1"/>
     <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="Q23:R23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43ED5C3C-BA4E-4AB1-8D45-C41524689188}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544454B1-26F9-4705-B765-EB1443427EA5}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:M19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.6328125" customWidth="1"/>
+    <col min="2" max="2" width="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="7.54296875" customWidth="1"/>
+    <col min="6" max="6" width="36.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.453125" customWidth="1"/>
+    <col min="10" max="10" width="25.453125" customWidth="1"/>
+    <col min="11" max="11" width="11.453125" customWidth="1"/>
+    <col min="12" max="12" width="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="46">
+        <f>COUNTIFS(Table1[[#All],[ChatGPT]:[Investigate details about ChatGPT &amp; Gemini Questions]],"Y")/(36)</f>
+        <v>0.61111111111111116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="46"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" s="46"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" s="46"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" s="46"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F6" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" s="46"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F7" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="M7" s="46"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F8" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="M8" s="46"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F9" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9" s="46"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F10" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="M10" s="46"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G14" s="28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="47"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="M1:M10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>